--- a/temp_analysis.xlsx
+++ b/temp_analysis.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -489,11 +489,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>18-24</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24147</v>
+        <v>37414</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24,147</t>
+          <t>37,414</t>
         </is>
       </c>
     </row>
@@ -517,32 +517,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35-44</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26427</v>
+        <v>19886</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9-12PM</t>
+          <t>12-3PM</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26,427</t>
+          <t>19,886</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -550,25 +550,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43091</v>
+        <v>7529</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3-6PM</t>
+          <t>6-9PM</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>43,091</t>
+          <t>7,529</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -592,23 +592,23 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>49511</v>
+        <v>44964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3-6PM</t>
+          <t>9-12PM</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>49,511</t>
+          <t>44,964</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -616,16 +616,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25-34</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6194</v>
+        <v>14569</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -634,337 +634,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6,194</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hyderabad</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>96%</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>42917</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9-12PM</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>42,917</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Delhi</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>34518</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6-9AM</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>34,518</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>50098</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>9-12PM</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>50,098</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Kolkata</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>47304</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3-6AM</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>47,304</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Kolkata</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>82%</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>17660</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>12-3AM</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>17,660</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>76%</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>32007</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3-6AM</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>32,007</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ahmedabad</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>18-24</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>35377</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6-9PM</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>35,377</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>45870</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6-9PM</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>45,870</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Chennai</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>66%</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>36621</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9-12PM</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>36,621</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>61%</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>47914</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>12-3AM</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>47,914</t>
+          <t>14,569</t>
         </is>
       </c>
     </row>
@@ -1012,37 +682,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>best  face wash top 15 city</t>
+          <t>top top 5 hiar scrum and face wash, skin care product</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37923</v>
+        <v>81684</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>56,924</t>
+          <t>40,354</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>top  face wash top 15 city</t>
+          <t>best top 5 hiar scrum and face wash, skin care product</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31424</v>
+        <v>41136</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22,943</t>
+          <t>57,079</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1089,37 +759,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Flipkart</t>
+          <t>Meesho</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>258,997</t>
+          <t>203,433</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>5.1%</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Instamart</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>236,906</t>
+          <t>233,596</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1129,81 +799,81 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Blinkit</t>
+          <t>Personal Website</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>198,231</t>
+          <t>274,596</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.4%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Meesho</t>
+          <t>Blinkit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>319,430</t>
+          <t>87,175</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>7.2%</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Personal Website</t>
+          <t>Myntra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>252,775</t>
+          <t>299,300</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>5.5%</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nykaa</t>
+          <t>Flipkart</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>210,532</t>
+          <t>201,436</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>8.5%</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1214,32 +884,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>259,464</t>
+          <t>45,083</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instamart</t>
+          <t>Nykaa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>121,919</t>
+          <t>152,885</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1249,17 +919,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Myntra</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>213,583</t>
+          <t>234,666</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>7.7%</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1310,21 +980,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>₹199</t>
+          <t>₹399</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8,496</t>
+          <t>9,009</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2823</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="3">
@@ -1335,76 +1005,76 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10,264</t>
+          <t>3,173</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2819</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>₹1299</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6,464</t>
+          <t>5,559</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2814</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹199</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6,379</t>
+          <t>3,818</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2759</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>₹599</t>
+          <t>₹299</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Mumbai</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8,322</t>
+          <t>9,163</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2708</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="7">
@@ -1420,91 +1090,91 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7,052</t>
+          <t>13,355</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2686</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>₹1299</t>
+          <t>₹499</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2,932</t>
+          <t>9,822</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2609</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹999</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13,315</t>
+          <t>13,770</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2583</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>₹299</t>
+          <t>₹1999</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9,671</t>
+          <t>11,826</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2553</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>₹999</t>
+          <t>₹599</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mumbai</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10,777</t>
+          <t>8,428</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2522</v>
+        <v>2450</v>
       </c>
     </row>
   </sheetData>
